--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{83865FF1-ECB5-49A6-BAEB-E93D6F59D045}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D343F265-FC50-4C51-B2CC-AAE76C7A9FD8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$28</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="109">
   <si>
     <t>Part Number</t>
   </si>
@@ -208,9 +208,6 @@
     <t>Extras:</t>
   </si>
   <si>
-    <t>Backlight Flyback</t>
-  </si>
-  <si>
     <t>8Mb SRAM Async</t>
   </si>
   <si>
@@ -329,6 +326,30 @@
   </si>
   <si>
     <t>BU21026MUV-E2</t>
+  </si>
+  <si>
+    <t>Res. Touch Driver</t>
+  </si>
+  <si>
+    <t>Rohm</t>
+  </si>
+  <si>
+    <t>MIC23050-SYML-TR</t>
+  </si>
+  <si>
+    <t>3.3V Buck</t>
+  </si>
+  <si>
+    <t>Backlight Supply</t>
+  </si>
+  <si>
+    <t>USB A Micro Female</t>
+  </si>
+  <si>
+    <t>ADC Ferrite</t>
+  </si>
+  <si>
+    <t>Buck Inductor</t>
   </si>
 </sst>
 </file>
@@ -354,12 +375,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -394,6 +409,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -438,12 +460,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -451,19 +473,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -477,10 +496,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -488,24 +507,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -791,22 +816,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="11" customWidth="1"/>
     <col min="9" max="9" width="59.28515625" style="2" customWidth="1"/>
     <col min="10" max="10" width="12.140625" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -815,7 +840,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -824,37 +849,37 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>69</v>
+      <c r="H1" s="15" t="s">
+        <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -863,80 +888,80 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>9.69</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>8.0442999999999998</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="10">
-        <f t="shared" ref="G2:G25" si="0">F2*E2</f>
+      <c r="G2" s="9">
+        <f t="shared" ref="G2:G27" si="0">F2*E2</f>
         <v>8.0442999999999998</v>
       </c>
-      <c r="H2" s="17">
-        <f t="shared" ref="H2:H26" si="1">G2/$G$26</f>
-        <v>9.9804715609351821E-2</v>
+      <c r="H2" s="16">
+        <f>G2/$G$28</f>
+        <v>8.9882154186168906E-2</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="20">
+        <v>93</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="19">
         <v>43413</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="9">
         <v>98.69</v>
       </c>
       <c r="M2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>91</v>
+      <c r="A3" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1.66</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1.54</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
+        <f t="shared" si="0"/>
+        <v>1.54</v>
+      </c>
+      <c r="H3" s="16">
+        <f>G3/$G$28</f>
+        <v>1.720703074807008E-2</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="10">
-        <v>1.66</v>
-      </c>
-      <c r="E3" s="10">
-        <v>1.54</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10">
-        <f t="shared" si="0"/>
-        <v>1.54</v>
-      </c>
-      <c r="H3" s="17">
-        <f t="shared" si="1"/>
-        <v>1.910660493000035E-2</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="20">
+      <c r="J3" s="14"/>
+      <c r="K3" s="19">
         <v>43383</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="9">
         <v>80.599999999999994</v>
       </c>
       <c r="M3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -945,30 +970,30 @@
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>0.79</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>0.70920000000000005</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <f t="shared" si="0"/>
         <v>0.70920000000000005</v>
       </c>
-      <c r="H4" s="17">
-        <f t="shared" si="1"/>
-        <v>8.7989637768547072E-3</v>
+      <c r="H4" s="16">
+        <f>G4/$G$28</f>
+        <v>7.9241728613839608E-3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" s="15"/>
+        <v>92</v>
+      </c>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -977,30 +1002,30 @@
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>31.43</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>12</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H5" s="17">
-        <f t="shared" si="1"/>
-        <v>0.14888263581818453</v>
+      <c r="H5" s="16">
+        <f>G5/$G$28</f>
+        <v>0.13408075907587075</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J5" s="15"/>
+        <v>94</v>
+      </c>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1009,57 +1034,57 @@
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>0.34</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>0.25750000000000001</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <f t="shared" si="0"/>
         <v>0.25750000000000001</v>
       </c>
-      <c r="H6" s="17">
-        <f t="shared" si="1"/>
-        <v>3.1947732269318766E-3</v>
-      </c>
-      <c r="J6" s="15"/>
+      <c r="H6" s="16">
+        <f>G6/$G$28</f>
+        <v>2.877149621836393E-3</v>
+      </c>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>22</v>
+      <c r="A7" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.44</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0.1895</v>
+        <v>6</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.46</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.35439999999999999</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="10">
-        <f t="shared" si="0"/>
-        <v>0.1895</v>
-      </c>
-      <c r="H7" s="17">
-        <f t="shared" si="1"/>
-        <v>2.3511049572954973E-3</v>
-      </c>
-      <c r="J7" s="15"/>
+      <c r="G7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.35439999999999999</v>
+      </c>
+      <c r="H7" s="16">
+        <f>G7/$G$28</f>
+        <v>3.9598517513740493E-3</v>
+      </c>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>87</v>
+      <c r="A8" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
@@ -1067,59 +1092,59 @@
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>43</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>33.970199999999998</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <f t="shared" si="0"/>
         <v>33.970199999999998</v>
       </c>
-      <c r="H8" s="17">
-        <f t="shared" si="1"/>
-        <v>0.4214644096059077</v>
+      <c r="H8" s="16">
+        <f>G8/$G$28</f>
+        <v>0.37956251682992864</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="15"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="26" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>1.28</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>0.58401000000000003</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>0.58401000000000003</v>
       </c>
-      <c r="H9" s="17">
-        <f t="shared" si="1"/>
-        <v>7.245745678681496E-3</v>
-      </c>
-      <c r="J9" s="15"/>
+      <c r="H9" s="16">
+        <f>G9/$G$28</f>
+        <v>6.5253753423249392E-3</v>
+      </c>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1128,27 +1153,27 @@
       <c r="C10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>0.22</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>0.14399999999999999</v>
       </c>
       <c r="F10" s="2">
         <v>4</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <f t="shared" si="0"/>
         <v>0.57599999999999996</v>
       </c>
-      <c r="H10" s="17">
-        <f t="shared" si="1"/>
-        <v>7.1463665192728568E-3</v>
-      </c>
-      <c r="J10" s="15"/>
+      <c r="H10" s="16">
+        <f>G10/$G$28</f>
+        <v>6.4358764356417944E-3</v>
+      </c>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1157,27 +1182,27 @@
       <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>0.1</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>6.0199999999999997E-2</v>
       </c>
       <c r="F11" s="2">
         <v>4</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <f t="shared" si="0"/>
         <v>0.24079999999999999</v>
       </c>
-      <c r="H11" s="17">
-        <f t="shared" si="1"/>
-        <v>2.987578225418236E-3</v>
-      </c>
-      <c r="J11" s="15"/>
+      <c r="H11" s="16">
+        <f>G11/$G$28</f>
+        <v>2.6905538987891391E-3</v>
+      </c>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1186,536 +1211,594 @@
       <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>3.58</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>2.8256999999999999</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <f t="shared" si="0"/>
         <v>2.8256999999999999</v>
       </c>
-      <c r="H12" s="17">
-        <f t="shared" si="1"/>
-        <v>3.5058138669287003E-2</v>
-      </c>
-      <c r="J12" s="15"/>
+      <c r="H12" s="16">
+        <f>G12/$G$28</f>
+        <v>3.1572666743390661E-2</v>
+      </c>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="H13" s="16"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D14" s="9">
         <v>0.42</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E14" s="9">
         <v>0.29899999999999999</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F14" s="2">
         <v>2</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G14" s="9">
         <f t="shared" si="0"/>
         <v>0.59799999999999998</v>
       </c>
-      <c r="H13" s="17">
-        <f t="shared" si="1"/>
-        <v>7.4193180182728627E-3</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="H14" s="16">
+        <f>G14/$G$28</f>
+        <v>6.6816911606142251E-3</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="15"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D15" s="9">
         <v>2.6</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E15" s="9">
         <v>2.2387000000000001</v>
       </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="10">
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9">
         <f t="shared" si="0"/>
         <v>2.2387000000000001</v>
       </c>
-      <c r="H14" s="17">
-        <f t="shared" si="1"/>
-        <v>2.7775296400514144E-2</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J14" s="15"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="H15" s="16">
+        <f>G15/$G$28</f>
+        <v>2.5013882945262654E-2</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D16" s="9">
         <v>0.4</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E16" s="9">
         <v>0.16750000000000001</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F16" s="2">
         <v>2</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G16" s="9">
         <f t="shared" si="0"/>
         <v>0.33500000000000002</v>
       </c>
-      <c r="H15" s="17">
-        <f t="shared" si="1"/>
-        <v>4.1563069165909856E-3</v>
-      </c>
-      <c r="J15" s="15"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="H16" s="16">
+        <f>G16/$G$28</f>
+        <v>3.7430878575347251E-3</v>
+      </c>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D17" s="9">
         <v>1.94</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E17" s="9">
         <v>1.3996999999999999</v>
       </c>
-      <c r="F16" s="2">
-        <v>1</v>
-      </c>
-      <c r="G16" s="10">
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
         <f t="shared" si="0"/>
         <v>1.3996999999999999</v>
       </c>
-      <c r="H16" s="17">
-        <f t="shared" si="1"/>
-        <v>1.7365918779559408E-2</v>
-      </c>
-      <c r="J16" s="15"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="H17" s="16">
+        <f>G17/$G$28</f>
+        <v>1.5639403206541357E-2</v>
+      </c>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D18" s="9">
         <v>11.4</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E18" s="9">
         <v>8.5252999999999997</v>
       </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="10">
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9">
         <f t="shared" si="0"/>
         <v>8.5252999999999997</v>
       </c>
-      <c r="H17" s="17">
-        <f t="shared" si="1"/>
-        <v>0.10577242792839739</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J17" s="15"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="H18" s="16">
+        <f>G18/$G$28</f>
+        <v>9.5256557945793394E-2</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D19" s="9">
         <v>0.99</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E19" s="9">
         <v>0.68700000000000006</v>
       </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="10">
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9">
         <f t="shared" si="0"/>
         <v>0.68700000000000006</v>
       </c>
-      <c r="H18" s="17">
-        <f t="shared" si="1"/>
-        <v>8.5235309005910649E-3</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="15"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="10">
-        <v>3.2</v>
-      </c>
-      <c r="E19" s="10">
-        <v>2.5325899999999999</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="10">
-        <f t="shared" si="0"/>
-        <v>2.5325899999999999</v>
-      </c>
-      <c r="H19" s="17">
-        <f t="shared" si="1"/>
-        <v>3.142155622056466E-2</v>
+      <c r="H19" s="16">
+        <f>G19/$G$28</f>
+        <v>7.6761234570935999E-3</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J19" s="15"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>70</v>
+      <c r="A20" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="10">
-        <v>1.34</v>
-      </c>
-      <c r="E20" s="10">
-        <v>1.0048999999999999</v>
+        <v>63</v>
+      </c>
+      <c r="D20" s="9">
+        <v>3.2</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2.5325899999999999</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
       </c>
-      <c r="G20" s="10">
-        <f t="shared" si="0"/>
-        <v>1.0048999999999999</v>
-      </c>
-      <c r="H20" s="17">
-        <f t="shared" si="1"/>
-        <v>1.2467680061141136E-2</v>
+      <c r="G20" s="9">
+        <f t="shared" si="0"/>
+        <v>2.5325899999999999</v>
+      </c>
+      <c r="H20" s="16">
+        <f>G20/$G$28</f>
+        <v>2.8297632468996622E-2</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J20" s="15"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1.34</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1.0048999999999999</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0048999999999999</v>
+      </c>
+      <c r="H21" s="16">
+        <f>G21/$G$28</f>
+        <v>1.1228146232945208E-2</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1.54</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1.075</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9">
+        <f t="shared" si="0"/>
+        <v>1.075</v>
+      </c>
+      <c r="H22" s="16">
+        <f>G22/$G$28</f>
+        <v>1.2011401333880086E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21">
+        <v>2</v>
+      </c>
+      <c r="F24" s="22">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
+        <f>F24*E24</f>
+        <v>2</v>
+      </c>
+      <c r="H24" s="16">
+        <f>G24/$G$28</f>
+        <v>2.2346793179311788E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="F25" s="22">
+        <v>40</v>
+      </c>
+      <c r="G25" s="9">
+        <f>F25*E25</f>
+        <v>4</v>
+      </c>
+      <c r="H25" s="16">
+        <f>G25/$G$28</f>
+        <v>4.4693586358623576E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="F26" s="22">
+        <v>40</v>
+      </c>
+      <c r="G26" s="9">
+        <f>F26*E26</f>
+        <v>4</v>
+      </c>
+      <c r="H26" s="16">
+        <f>G26/$G$28</f>
+        <v>4.4693586358623576E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G27" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="16">
+        <f>G27/$G$28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G28" s="24">
+        <f>SUM(G2:G27)</f>
+        <v>89.498299999999986</v>
+      </c>
+      <c r="H28" s="11">
+        <f>G28/$G$28</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J33" s="14"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" s="11">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22">
-        <v>2</v>
-      </c>
-      <c r="F21" s="23">
-        <v>1</v>
-      </c>
-      <c r="G21" s="10">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H21" s="17">
-        <f t="shared" si="1"/>
-        <v>2.4813772636364091E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="E22" s="22">
-        <v>4.3099999999999996E-3</v>
-      </c>
-      <c r="F22" s="23">
+      <c r="D39"/>
+      <c r="E39" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="10">
-        <f t="shared" si="0"/>
-        <v>0.1724</v>
-      </c>
-      <c r="H22" s="17">
-        <f t="shared" si="1"/>
-        <v>2.1389472012545846E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="E23" s="22">
-        <v>4.2399999999999998E-3</v>
-      </c>
-      <c r="F23" s="23">
-        <v>40</v>
-      </c>
-      <c r="G23" s="10">
-        <f t="shared" si="0"/>
-        <v>0.1696</v>
-      </c>
-      <c r="H23" s="17">
-        <f t="shared" si="1"/>
-        <v>2.1042079195636746E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="G24" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G25" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G26" s="25">
-        <f>SUM(G2:G25)</f>
-        <v>80.600399999999993</v>
-      </c>
-      <c r="H26" s="12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J31" s="15"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="H34" s="12">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36"/>
-      <c r="E36" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37"/>
-      <c r="E37" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D42" s="9">
         <v>2.59</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E42" s="9">
         <v>2.0739000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D43" s="9">
         <v>0.95</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E43" s="9">
         <v>0.71830000000000005</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="26" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D46" s="7">
         <v>5.78</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E46" s="9">
         <v>4.7998000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D47" s="9">
         <v>3.35</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E47" s="9">
         <v>1.8204</v>
       </c>
     </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="9">
+        <v>0.44</v>
+      </c>
+      <c r="E48" s="9">
+        <v>0.1895</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1</v>
+      </c>
+      <c r="G48" s="9">
+        <f t="shared" ref="G48" si="1">F48*E48</f>
+        <v>0.1895</v>
+      </c>
+      <c r="H48" s="16">
+        <f t="shared" ref="H48" si="2">G48/$G$28</f>
+        <v>2.1173586537397921E-3</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H25">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="H2:H27">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1728,36 +1811,51 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EBDEEC8F-BD23-4E2E-99BF-810A8861A417}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://www.digikey.com/product-detail/en/microchip-technology/PIC32MX795F512L-80I-PT/PIC32MX795F512L-80I-PT-ND/2184451" xr:uid="{96F50DC8-1156-44BD-A100-CECEF0DBA608}"/>
     <hyperlink ref="A4" r:id="rId2" display="https://www.digikey.com/product-detail/en/stmicroelectronics/LIS3DHTR/497-10613-1-ND/2334355" xr:uid="{75FD6DE8-E3E6-488A-80DA-A82A7415BE34}"/>
     <hyperlink ref="A5" r:id="rId3" display="CAM-M8" xr:uid="{AAA52117-BA88-47F2-8CEE-882690036EF1}"/>
     <hyperlink ref="A6" r:id="rId4" xr:uid="{B7E4E087-B402-4FDC-949C-298F88573ED0}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{06459328-3F0B-4C9E-8547-1BCF40D72763}"/>
-    <hyperlink ref="A9" r:id="rId6" xr:uid="{BCB74108-468A-49FE-9C12-37C2BA4FC058}"/>
-    <hyperlink ref="A10" r:id="rId7" xr:uid="{B696A207-AA14-4226-B01D-E4F633E3359E}"/>
-    <hyperlink ref="A11" r:id="rId8" xr:uid="{FC9BFBD5-64DF-4FA5-B956-10395A26F4F7}"/>
-    <hyperlink ref="A12" r:id="rId9" xr:uid="{00FD8348-3D5C-4D08-B5A1-80F726E66E33}"/>
-    <hyperlink ref="A13" r:id="rId10" xr:uid="{02DE768A-CE3C-49EC-826B-64FEAEB9621E}"/>
-    <hyperlink ref="A15" r:id="rId11" display="https://www.digikey.com/product-detail/en/on-semiconductor/MC74HC125ADR2G/MC74HC125ADR2GOSCT-ND/1139715" xr:uid="{0D700448-0E72-4B55-90FA-B368E0B62C39}"/>
-    <hyperlink ref="A16" r:id="rId12" display="https://www.digikey.com/product-detail/en/texas-instruments/DRV8872DDAR/296-42661-1-ND/5455926" xr:uid="{6114D03B-D4DA-4FBF-9B1C-C3B7AD098BA9}"/>
-    <hyperlink ref="A17" r:id="rId13" display="https://www.digikey.com/product-detail/en/analog-devices-inc/AD7799BRUZ-REEL/AD7799BRUZ-REELCT-ND/4135565" xr:uid="{4B1FE711-B41B-4C95-9AFF-964E590FAEA9}"/>
-    <hyperlink ref="A19" r:id="rId14" xr:uid="{C8A12CB4-8BD6-400D-8778-CB90C34529A8}"/>
-    <hyperlink ref="A18" r:id="rId15" xr:uid="{DA75B542-D86D-4B8B-A010-0E90403DB631}"/>
-    <hyperlink ref="A42" r:id="rId16" xr:uid="{5678B9E6-DE86-401B-BDAE-7D9F6469FDE3}"/>
-    <hyperlink ref="A43" r:id="rId17" xr:uid="{7E8CB0A3-F47D-4B54-B720-D9CD7DF2F8EE}"/>
-    <hyperlink ref="A20" r:id="rId18" xr:uid="{A6E4D973-AE6B-4A9A-BF80-8FCB22FBD30E}"/>
-    <hyperlink ref="A14" r:id="rId19" xr:uid="{7F96FA14-D697-422E-905A-991475B71057}"/>
-    <hyperlink ref="A40" r:id="rId20" xr:uid="{653FFE94-4D7F-4394-B0B2-10332AAC8742}"/>
-    <hyperlink ref="A41" r:id="rId21" display="https://www.digikey.com/product-detail/en/molex-llc/0522710679/WM7955CT-ND/1960704" xr:uid="{C446B2E0-C0B0-47BA-BB19-2A932AEA1D87}"/>
-    <hyperlink ref="A8" r:id="rId22" xr:uid="{9849B45B-0C58-488D-BA9E-5D0A918112A3}"/>
-    <hyperlink ref="A44" r:id="rId23" xr:uid="{7A52F621-53DC-4944-A105-9D5D48BD709B}"/>
-    <hyperlink ref="A45" r:id="rId24" display="https://www.digikey.com/product-detail/en/texas-instruments/HDC2010YPAR/296-47774-6-ND/8133296" xr:uid="{A59B6D7E-18A9-46DD-B79B-3216C251B120}"/>
-    <hyperlink ref="A3" r:id="rId25" xr:uid="{0D2ADA9B-1007-4C76-91DB-7B12AE9573EA}"/>
-    <hyperlink ref="A24" r:id="rId26" xr:uid="{1403372D-5EBE-4749-8D7B-B82E7BCD587C}"/>
+    <hyperlink ref="A9" r:id="rId5" xr:uid="{BCB74108-468A-49FE-9C12-37C2BA4FC058}"/>
+    <hyperlink ref="A10" r:id="rId6" xr:uid="{B696A207-AA14-4226-B01D-E4F633E3359E}"/>
+    <hyperlink ref="A11" r:id="rId7" xr:uid="{FC9BFBD5-64DF-4FA5-B956-10395A26F4F7}"/>
+    <hyperlink ref="A12" r:id="rId8" xr:uid="{00FD8348-3D5C-4D08-B5A1-80F726E66E33}"/>
+    <hyperlink ref="A14" r:id="rId9" xr:uid="{02DE768A-CE3C-49EC-826B-64FEAEB9621E}"/>
+    <hyperlink ref="A16" r:id="rId10" display="https://www.digikey.com/product-detail/en/on-semiconductor/MC74HC125ADR2G/MC74HC125ADR2GOSCT-ND/1139715" xr:uid="{0D700448-0E72-4B55-90FA-B368E0B62C39}"/>
+    <hyperlink ref="A17" r:id="rId11" display="https://www.digikey.com/product-detail/en/texas-instruments/DRV8872DDAR/296-42661-1-ND/5455926" xr:uid="{6114D03B-D4DA-4FBF-9B1C-C3B7AD098BA9}"/>
+    <hyperlink ref="A18" r:id="rId12" display="https://www.digikey.com/product-detail/en/analog-devices-inc/AD7799BRUZ-REEL/AD7799BRUZ-REELCT-ND/4135565" xr:uid="{4B1FE711-B41B-4C95-9AFF-964E590FAEA9}"/>
+    <hyperlink ref="A20" r:id="rId13" xr:uid="{C8A12CB4-8BD6-400D-8778-CB90C34529A8}"/>
+    <hyperlink ref="A19" r:id="rId14" xr:uid="{DA75B542-D86D-4B8B-A010-0E90403DB631}"/>
+    <hyperlink ref="A44" r:id="rId15" xr:uid="{5678B9E6-DE86-401B-BDAE-7D9F6469FDE3}"/>
+    <hyperlink ref="A45" r:id="rId16" xr:uid="{7E8CB0A3-F47D-4B54-B720-D9CD7DF2F8EE}"/>
+    <hyperlink ref="A21" r:id="rId17" xr:uid="{A6E4D973-AE6B-4A9A-BF80-8FCB22FBD30E}"/>
+    <hyperlink ref="A15" r:id="rId18" xr:uid="{7F96FA14-D697-422E-905A-991475B71057}"/>
+    <hyperlink ref="A42" r:id="rId19" xr:uid="{653FFE94-4D7F-4394-B0B2-10332AAC8742}"/>
+    <hyperlink ref="A43" r:id="rId20" display="https://www.digikey.com/product-detail/en/molex-llc/0522710679/WM7955CT-ND/1960704" xr:uid="{C446B2E0-C0B0-47BA-BB19-2A932AEA1D87}"/>
+    <hyperlink ref="A8" r:id="rId21" xr:uid="{9849B45B-0C58-488D-BA9E-5D0A918112A3}"/>
+    <hyperlink ref="A46" r:id="rId22" xr:uid="{7A52F621-53DC-4944-A105-9D5D48BD709B}"/>
+    <hyperlink ref="A47" r:id="rId23" display="https://www.digikey.com/product-detail/en/texas-instruments/HDC2010YPAR/296-47774-6-ND/8133296" xr:uid="{A59B6D7E-18A9-46DD-B79B-3216C251B120}"/>
+    <hyperlink ref="A3" r:id="rId24" xr:uid="{0D2ADA9B-1007-4C76-91DB-7B12AE9573EA}"/>
+    <hyperlink ref="A22" r:id="rId25" xr:uid="{1403372D-5EBE-4749-8D7B-B82E7BCD587C}"/>
+    <hyperlink ref="A48" r:id="rId26" xr:uid="{5D40EBFA-38D8-4D85-A69A-77A340615339}"/>
+    <hyperlink ref="A7" r:id="rId27" xr:uid="{97352714-91EF-4428-A3E4-A04998CB3C31}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId27"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -1770,7 +1868,18 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H2:H25</xm:sqref>
+          <xm:sqref>H2:H27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EBDEEC8F-BD23-4E2E-99BF-810A8861A417}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H48</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D343F265-FC50-4C51-B2CC-AAE76C7A9FD8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{71BA29C5-9E13-4A16-9CCF-891BCF0D252D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$26</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="123">
   <si>
     <t>Part Number</t>
   </si>
@@ -133,15 +134,9 @@
     <t>W25N01GVZEIG TR</t>
   </si>
   <si>
-    <t>SS-52100-001</t>
-  </si>
-  <si>
     <t>USB A Female</t>
   </si>
   <si>
-    <t>Stewart Connector</t>
-  </si>
-  <si>
     <t>Programming headers</t>
   </si>
   <si>
@@ -235,9 +230,6 @@
     <t>MCU Oscillator</t>
   </si>
   <si>
-    <t>FC7BQCCMC8.0-T1</t>
-  </si>
-  <si>
     <t>Fox Electronics</t>
   </si>
   <si>
@@ -343,21 +335,73 @@
     <t>Backlight Supply</t>
   </si>
   <si>
-    <t>USB A Micro Female</t>
-  </si>
-  <si>
-    <t>ADC Ferrite</t>
-  </si>
-  <si>
     <t>Buck Inductor</t>
+  </si>
+  <si>
+    <t>PCB Man &amp; Asbly</t>
+  </si>
+  <si>
+    <t>Unit Project Total</t>
+  </si>
+  <si>
+    <t>Case Manuf. Est</t>
+  </si>
+  <si>
+    <t>BOM Sub Total</t>
+  </si>
+  <si>
+    <t>USB B Micro Female</t>
+  </si>
+  <si>
+    <t>Not including Peripherals: Barcode Scanner, Battery, Force Sensor</t>
+  </si>
+  <si>
+    <t>ABLS-8.000MHZ-B4-T</t>
+  </si>
+  <si>
+    <t>mA</t>
+  </si>
+  <si>
+    <t>AU-Y1006</t>
+  </si>
+  <si>
+    <t>Assmann WSW</t>
+  </si>
+  <si>
+    <t>10118192-0002LF</t>
+  </si>
+  <si>
+    <t>OSTTE040104</t>
+  </si>
+  <si>
+    <t>On Shore</t>
+  </si>
+  <si>
+    <t>500 unit cost</t>
+  </si>
+  <si>
+    <t>Amphenol</t>
+  </si>
+  <si>
+    <t>LQM21PN1R0MC0D</t>
+  </si>
+  <si>
+    <t>Called for in Buck data sheet</t>
+  </si>
+  <si>
+    <t>Murata</t>
+  </si>
+  <si>
+    <t>Terminal Blocks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
@@ -400,22 +444,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -434,7 +479,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -457,15 +502,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -477,9 +539,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -499,41 +558,59 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="2" borderId="1" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="2" borderId="2" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
+    <cellStyle name="Calculation" xfId="5" builtinId="22"/>
+    <cellStyle name="Comma" xfId="6" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,22 +895,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="59.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="62.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="27" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="44.7109375" customWidth="1"/>
@@ -849,37 +926,39 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="15" t="s">
-        <v>68</v>
+      <c r="H1" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J1" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>111</v>
+      </c>
       <c r="K1" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="28" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -888,80 +967,80 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>9.69</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>8.0442999999999998</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="9">
-        <f t="shared" ref="G2:G27" si="0">F2*E2</f>
+      <c r="G2" s="8">
+        <f t="shared" ref="G2:G24" si="0">F2*E2</f>
         <v>8.0442999999999998</v>
       </c>
-      <c r="H2" s="16">
-        <f>G2/$G$28</f>
-        <v>8.9882154186168906E-2</v>
+      <c r="H2" s="13">
+        <f t="shared" ref="H2:H11" si="1">G2/$G$26</f>
+        <v>8.9986460026202947E-2</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="19">
+        <v>90</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="14">
         <v>43413</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <v>98.69</v>
       </c>
       <c r="M2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>90</v>
+      <c r="A3" s="29" t="s">
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="9">
+        <v>88</v>
+      </c>
+      <c r="D3" s="8">
         <v>1.66</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>1.54</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <f t="shared" si="0"/>
         <v>1.54</v>
       </c>
-      <c r="H3" s="16">
-        <f>G3/$G$28</f>
-        <v>1.720703074807008E-2</v>
+      <c r="H3" s="13">
+        <f t="shared" si="1"/>
+        <v>1.7226999047816785E-2</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="19">
+        <v>89</v>
+      </c>
+      <c r="J3" s="25"/>
+      <c r="K3" s="14">
         <v>43383</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>80.599999999999994</v>
       </c>
       <c r="M3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="29" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -970,30 +1049,30 @@
       <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>0.79</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>0.70920000000000005</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <f t="shared" si="0"/>
         <v>0.70920000000000005</v>
       </c>
-      <c r="H4" s="16">
-        <f>G4/$G$28</f>
-        <v>7.9241728613839608E-3</v>
+      <c r="H4" s="13">
+        <f t="shared" si="1"/>
+        <v>7.9333686524101707E-3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J4" s="14"/>
+        <v>89</v>
+      </c>
+      <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="30" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1002,30 +1081,30 @@
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>31.43</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>12</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H5" s="16">
-        <f>G5/$G$28</f>
-        <v>0.13408075907587075</v>
+      <c r="H5" s="13">
+        <f t="shared" si="1"/>
+        <v>0.13423635621675414</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J5" s="14"/>
+        <v>91</v>
+      </c>
+      <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="28" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1034,57 +1113,57 @@
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>0.34</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>0.25750000000000001</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <f t="shared" si="0"/>
         <v>0.25750000000000001</v>
       </c>
-      <c r="H6" s="16">
-        <f>G6/$G$28</f>
-        <v>2.877149621836393E-3</v>
-      </c>
-      <c r="J6" s="14"/>
+      <c r="H6" s="13">
+        <f t="shared" si="1"/>
+        <v>2.8804884771511828E-3</v>
+      </c>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>103</v>
+      <c r="A7" s="30" t="s">
+        <v>100</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>0.46</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>0.35439999999999999</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>0.35439999999999999</v>
       </c>
-      <c r="H7" s="16">
-        <f>G7/$G$28</f>
-        <v>3.9598517513740493E-3</v>
-      </c>
-      <c r="J7" s="14"/>
+      <c r="H7" s="13">
+        <f t="shared" si="1"/>
+        <v>3.9644470536014725E-3</v>
+      </c>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>86</v>
+      <c r="A8" s="31" t="s">
+        <v>83</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
@@ -1092,713 +1171,801 @@
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>43</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>33.970199999999998</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <f t="shared" si="0"/>
         <v>33.970199999999998</v>
       </c>
-      <c r="H8" s="16">
-        <f>G8/$G$28</f>
-        <v>0.37956251682992864</v>
+      <c r="H8" s="13">
+        <f t="shared" si="1"/>
+        <v>0.3800029889961985</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="14"/>
+        <v>54</v>
+      </c>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="19" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>1.28</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>0.58401000000000003</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>0.58401000000000003</v>
       </c>
-      <c r="H9" s="16">
-        <f>G9/$G$28</f>
-        <v>6.5253753423249392E-3</v>
-      </c>
-      <c r="J9" s="14"/>
+      <c r="H9" s="13">
+        <f t="shared" si="1"/>
+        <v>6.5329478661788828E-3</v>
+      </c>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1.07</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.4264</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="0"/>
+        <v>2.1320000000000001</v>
+      </c>
+      <c r="H10" s="13">
+        <f t="shared" si="1"/>
+        <v>2.3849325954509989E-2</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="8">
+        <v>3.58</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2.8256999999999999</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="0"/>
+        <v>2.8256999999999999</v>
+      </c>
+      <c r="H11" s="13">
+        <f t="shared" si="1"/>
+        <v>3.1609305980140182E-2</v>
+      </c>
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.31950000000000001</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="0"/>
+        <v>0.31950000000000001</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="J12" s="25"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.60955999999999999</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="0"/>
+        <v>0.60955999999999999</v>
+      </c>
+      <c r="H13" s="13">
+        <f t="shared" ref="H13:H24" si="2">G13/$G$26</f>
+        <v>6.8187594412903885E-3</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="25"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2.6</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2.2387000000000001</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="0"/>
+        <v>2.2387000000000001</v>
+      </c>
+      <c r="H14" s="13">
+        <f t="shared" si="2"/>
+        <v>2.5042910888537294E-2</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.16750000000000001</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="0"/>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="H15" s="13">
+        <f t="shared" si="2"/>
+        <v>3.7474316110510538E-3</v>
+      </c>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1.94</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1.3996999999999999</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="0"/>
+        <v>1.3996999999999999</v>
+      </c>
+      <c r="H16" s="13">
+        <f t="shared" si="2"/>
+        <v>1.5657552316382564E-2</v>
+      </c>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="8">
+        <v>11.4</v>
+      </c>
+      <c r="E17" s="8">
+        <v>8.5252999999999997</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5252999999999997</v>
+      </c>
+      <c r="H17" s="13">
+        <f t="shared" si="2"/>
+        <v>9.5367100637891181E-2</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17" s="25"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="0"/>
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="H18" s="13">
+        <f t="shared" si="2"/>
+        <v>7.685031393409176E-3</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="25"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2.5325899999999999</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="0"/>
+        <v>2.5325899999999999</v>
+      </c>
+      <c r="H19" s="13">
+        <f t="shared" si="2"/>
+        <v>2.8330471115915783E-2</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="25"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1.34</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1.0048999999999999</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>1.0048999999999999</v>
+      </c>
+      <c r="H20" s="13">
+        <f t="shared" si="2"/>
+        <v>1.1241176196851353E-2</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="25"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1.54</v>
+      </c>
+      <c r="E21" s="8">
+        <v>1.075</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="0"/>
+        <v>1.075</v>
+      </c>
+      <c r="H21" s="13">
+        <f t="shared" si="2"/>
+        <v>1.202534024441756E-2</v>
+      </c>
+      <c r="J21" s="25"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="H22" s="13">
+        <f t="shared" si="2"/>
+        <v>2.7965907545157115E-3</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J22" s="25"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="E23" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="16">
+        <v>40</v>
+      </c>
+      <c r="G23" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H23" s="13">
+        <f t="shared" si="2"/>
+        <v>4.4745452072251383E-2</v>
+      </c>
+      <c r="J23" s="25"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="F24" s="16">
+        <v>40</v>
+      </c>
+      <c r="G24" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H24" s="13">
+        <f t="shared" si="2"/>
+        <v>4.4745452072251383E-2</v>
+      </c>
+      <c r="J24" s="25"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G25" s="17"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="20">
+        <f>SUM(G2:G25)</f>
+        <v>89.394559999999984</v>
+      </c>
+      <c r="H26" s="10">
+        <f>G26/$G$26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="20">
+        <f>525/100</f>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="22">
+        <f>G26+G27+G28</f>
+        <v>99.644559999999984</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J31" s="24"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H34" s="10">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="8">
+        <v>2.59</v>
+      </c>
+      <c r="E40" s="8">
+        <v>2.0739000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="E41" s="8">
+        <v>0.71830000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="6">
+        <v>5.78</v>
+      </c>
+      <c r="E44" s="8">
+        <v>4.7998000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="8">
+        <v>3.35</v>
+      </c>
+      <c r="E45" s="8">
+        <v>1.8204</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="E46" s="8">
+        <v>0.1895</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="8">
+        <f>F46*E46</f>
+        <v>0.1895</v>
+      </c>
+      <c r="H46" s="13">
+        <f>G46/$G$26</f>
+        <v>2.1198157919229093E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D47" s="8">
         <v>0.22</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E47" s="8">
         <v>0.14399999999999999</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F47" s="2">
+        <v>5</v>
+      </c>
+      <c r="G47" s="8">
+        <f>F47*E47</f>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E48" s="8">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="F48" s="2">
         <v>4</v>
       </c>
-      <c r="G10" s="9">
-        <f t="shared" si="0"/>
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="H10" s="16">
-        <f>G10/$G$28</f>
-        <v>6.4358764356417944E-3</v>
-      </c>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="E11" s="9">
-        <v>6.0199999999999997E-2</v>
-      </c>
-      <c r="F11" s="2">
-        <v>4</v>
-      </c>
-      <c r="G11" s="9">
-        <f t="shared" si="0"/>
+      <c r="G48" s="8">
+        <f>F48*E48</f>
         <v>0.24079999999999999</v>
       </c>
-      <c r="H11" s="16">
-        <f>G11/$G$28</f>
-        <v>2.6905538987891391E-3</v>
-      </c>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="9">
-        <v>3.58</v>
-      </c>
-      <c r="E12" s="9">
-        <v>2.8256999999999999</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9">
-        <f t="shared" si="0"/>
-        <v>2.8256999999999999</v>
-      </c>
-      <c r="H12" s="16">
-        <f>G12/$G$28</f>
-        <v>3.1572666743390661E-2</v>
-      </c>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="H13" s="16"/>
-      <c r="J13" s="14"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0.42</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2</v>
-      </c>
-      <c r="G14" s="9">
-        <f t="shared" si="0"/>
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="H14" s="16">
-        <f>G14/$G$28</f>
-        <v>6.6816911606142251E-3</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="9">
-        <v>2.6</v>
-      </c>
-      <c r="E15" s="9">
-        <v>2.2387000000000001</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="9">
-        <f t="shared" si="0"/>
-        <v>2.2387000000000001</v>
-      </c>
-      <c r="H15" s="16">
-        <f>G15/$G$28</f>
-        <v>2.5013882945262654E-2</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0.16750000000000001</v>
-      </c>
-      <c r="F16" s="2">
-        <v>2</v>
-      </c>
-      <c r="G16" s="9">
-        <f t="shared" si="0"/>
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="H16" s="16">
-        <f>G16/$G$28</f>
-        <v>3.7430878575347251E-3</v>
-      </c>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="9">
-        <v>1.94</v>
-      </c>
-      <c r="E17" s="9">
-        <v>1.3996999999999999</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1</v>
-      </c>
-      <c r="G17" s="9">
-        <f t="shared" si="0"/>
-        <v>1.3996999999999999</v>
-      </c>
-      <c r="H17" s="16">
-        <f>G17/$G$28</f>
-        <v>1.5639403206541357E-2</v>
-      </c>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="9">
-        <v>11.4</v>
-      </c>
-      <c r="E18" s="9">
-        <v>8.5252999999999997</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="9">
-        <f t="shared" si="0"/>
-        <v>8.5252999999999997</v>
-      </c>
-      <c r="H18" s="16">
-        <f>G18/$G$28</f>
-        <v>9.5256557945793394E-2</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0.99</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="9">
-        <f t="shared" si="0"/>
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="H19" s="16">
-        <f>G19/$G$28</f>
-        <v>7.6761234570935999E-3</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="9">
-        <v>3.2</v>
-      </c>
-      <c r="E20" s="9">
-        <v>2.5325899999999999</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="9">
-        <f t="shared" si="0"/>
-        <v>2.5325899999999999</v>
-      </c>
-      <c r="H20" s="16">
-        <f>G20/$G$28</f>
-        <v>2.8297632468996622E-2</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" s="9">
-        <v>1.34</v>
-      </c>
-      <c r="E21" s="9">
-        <v>1.0048999999999999</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" s="9">
-        <f t="shared" si="0"/>
-        <v>1.0048999999999999</v>
-      </c>
-      <c r="H21" s="16">
-        <f>G21/$G$28</f>
-        <v>1.1228146232945208E-2</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1.54</v>
-      </c>
-      <c r="E22" s="9">
-        <v>1.075</v>
-      </c>
-      <c r="F22" s="2">
-        <v>1</v>
-      </c>
-      <c r="G22" s="9">
-        <f t="shared" si="0"/>
-        <v>1.075</v>
-      </c>
-      <c r="H22" s="16">
-        <f>G22/$G$28</f>
-        <v>1.2011401333880086E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="H23" s="16"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21">
-        <v>2</v>
-      </c>
-      <c r="F24" s="22">
-        <v>1</v>
-      </c>
-      <c r="G24" s="9">
-        <f>F24*E24</f>
-        <v>2</v>
-      </c>
-      <c r="H24" s="16">
-        <f>G24/$G$28</f>
-        <v>2.2346793179311788E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E25" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="F25" s="22">
-        <v>40</v>
-      </c>
-      <c r="G25" s="9">
-        <f>F25*E25</f>
-        <v>4</v>
-      </c>
-      <c r="H25" s="16">
-        <f>G25/$G$28</f>
-        <v>4.4693586358623576E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="E26" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="F26" s="22">
-        <v>40</v>
-      </c>
-      <c r="G26" s="9">
-        <f>F26*E26</f>
-        <v>4</v>
-      </c>
-      <c r="H26" s="16">
-        <f>G26/$G$28</f>
-        <v>4.4693586358623576E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G27" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="16">
-        <f>G27/$G$28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G28" s="24">
-        <f>SUM(G2:G27)</f>
-        <v>89.498299999999986</v>
-      </c>
-      <c r="H28" s="11">
-        <f>G28/$G$28</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J33" s="14"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H36" s="11">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38"/>
-      <c r="E38" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39"/>
-      <c r="E39" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="9">
-        <v>2.59</v>
-      </c>
-      <c r="E42" s="9">
-        <v>2.0739000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D43" s="9">
-        <v>0.95</v>
-      </c>
-      <c r="E43" s="9">
-        <v>0.71830000000000005</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="7">
-        <v>5.78</v>
-      </c>
-      <c r="E46" s="9">
-        <v>4.7998000000000003</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="9">
-        <v>3.35</v>
-      </c>
-      <c r="E47" s="9">
-        <v>1.8204</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48" s="9">
-        <v>0.44</v>
-      </c>
-      <c r="E48" s="9">
-        <v>0.1895</v>
-      </c>
-      <c r="F48" s="2">
-        <v>1</v>
-      </c>
-      <c r="G48" s="9">
-        <f t="shared" ref="G48" si="1">F48*E48</f>
-        <v>0.1895</v>
-      </c>
-      <c r="H48" s="16">
-        <f t="shared" ref="H48" si="2">G48/$G$28</f>
-        <v>2.1173586537397921E-3</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H27">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="H46">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EBDEEC8F-BD23-4E2E-99BF-810A8861A417}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H25">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1811,54 +1978,54 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EBDEEC8F-BD23-4E2E-99BF-810A8861A417}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.digikey.com/product-detail/en/microchip-technology/PIC32MX795F512L-80I-PT/PIC32MX795F512L-80I-PT-ND/2184451" xr:uid="{96F50DC8-1156-44BD-A100-CECEF0DBA608}"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://www.digikey.com/product-detail/en/stmicroelectronics/LIS3DHTR/497-10613-1-ND/2334355" xr:uid="{75FD6DE8-E3E6-488A-80DA-A82A7415BE34}"/>
-    <hyperlink ref="A5" r:id="rId3" display="CAM-M8" xr:uid="{AAA52117-BA88-47F2-8CEE-882690036EF1}"/>
-    <hyperlink ref="A6" r:id="rId4" xr:uid="{B7E4E087-B402-4FDC-949C-298F88573ED0}"/>
-    <hyperlink ref="A9" r:id="rId5" xr:uid="{BCB74108-468A-49FE-9C12-37C2BA4FC058}"/>
-    <hyperlink ref="A10" r:id="rId6" xr:uid="{B696A207-AA14-4226-B01D-E4F633E3359E}"/>
-    <hyperlink ref="A11" r:id="rId7" xr:uid="{FC9BFBD5-64DF-4FA5-B956-10395A26F4F7}"/>
-    <hyperlink ref="A12" r:id="rId8" xr:uid="{00FD8348-3D5C-4D08-B5A1-80F726E66E33}"/>
-    <hyperlink ref="A14" r:id="rId9" xr:uid="{02DE768A-CE3C-49EC-826B-64FEAEB9621E}"/>
-    <hyperlink ref="A16" r:id="rId10" display="https://www.digikey.com/product-detail/en/on-semiconductor/MC74HC125ADR2G/MC74HC125ADR2GOSCT-ND/1139715" xr:uid="{0D700448-0E72-4B55-90FA-B368E0B62C39}"/>
-    <hyperlink ref="A17" r:id="rId11" display="https://www.digikey.com/product-detail/en/texas-instruments/DRV8872DDAR/296-42661-1-ND/5455926" xr:uid="{6114D03B-D4DA-4FBF-9B1C-C3B7AD098BA9}"/>
-    <hyperlink ref="A18" r:id="rId12" display="https://www.digikey.com/product-detail/en/analog-devices-inc/AD7799BRUZ-REEL/AD7799BRUZ-REELCT-ND/4135565" xr:uid="{4B1FE711-B41B-4C95-9AFF-964E590FAEA9}"/>
-    <hyperlink ref="A20" r:id="rId13" xr:uid="{C8A12CB4-8BD6-400D-8778-CB90C34529A8}"/>
-    <hyperlink ref="A19" r:id="rId14" xr:uid="{DA75B542-D86D-4B8B-A010-0E90403DB631}"/>
-    <hyperlink ref="A44" r:id="rId15" xr:uid="{5678B9E6-DE86-401B-BDAE-7D9F6469FDE3}"/>
-    <hyperlink ref="A45" r:id="rId16" xr:uid="{7E8CB0A3-F47D-4B54-B720-D9CD7DF2F8EE}"/>
-    <hyperlink ref="A21" r:id="rId17" xr:uid="{A6E4D973-AE6B-4A9A-BF80-8FCB22FBD30E}"/>
-    <hyperlink ref="A15" r:id="rId18" xr:uid="{7F96FA14-D697-422E-905A-991475B71057}"/>
-    <hyperlink ref="A42" r:id="rId19" xr:uid="{653FFE94-4D7F-4394-B0B2-10332AAC8742}"/>
-    <hyperlink ref="A43" r:id="rId20" display="https://www.digikey.com/product-detail/en/molex-llc/0522710679/WM7955CT-ND/1960704" xr:uid="{C446B2E0-C0B0-47BA-BB19-2A932AEA1D87}"/>
-    <hyperlink ref="A8" r:id="rId21" xr:uid="{9849B45B-0C58-488D-BA9E-5D0A918112A3}"/>
-    <hyperlink ref="A46" r:id="rId22" xr:uid="{7A52F621-53DC-4944-A105-9D5D48BD709B}"/>
-    <hyperlink ref="A47" r:id="rId23" display="https://www.digikey.com/product-detail/en/texas-instruments/HDC2010YPAR/296-47774-6-ND/8133296" xr:uid="{A59B6D7E-18A9-46DD-B79B-3216C251B120}"/>
-    <hyperlink ref="A3" r:id="rId24" xr:uid="{0D2ADA9B-1007-4C76-91DB-7B12AE9573EA}"/>
-    <hyperlink ref="A22" r:id="rId25" xr:uid="{1403372D-5EBE-4749-8D7B-B82E7BCD587C}"/>
-    <hyperlink ref="A48" r:id="rId26" xr:uid="{5D40EBFA-38D8-4D85-A69A-77A340615339}"/>
-    <hyperlink ref="A7" r:id="rId27" xr:uid="{97352714-91EF-4428-A3E4-A04998CB3C31}"/>
+    <hyperlink ref="A42" r:id="rId1" xr:uid="{5678B9E6-DE86-401B-BDAE-7D9F6469FDE3}"/>
+    <hyperlink ref="A43" r:id="rId2" xr:uid="{7E8CB0A3-F47D-4B54-B720-D9CD7DF2F8EE}"/>
+    <hyperlink ref="A40" r:id="rId3" xr:uid="{653FFE94-4D7F-4394-B0B2-10332AAC8742}"/>
+    <hyperlink ref="A41" r:id="rId4" display="https://www.digikey.com/product-detail/en/molex-llc/0522710679/WM7955CT-ND/1960704" xr:uid="{C446B2E0-C0B0-47BA-BB19-2A932AEA1D87}"/>
+    <hyperlink ref="A44" r:id="rId5" xr:uid="{7A52F621-53DC-4944-A105-9D5D48BD709B}"/>
+    <hyperlink ref="A45" r:id="rId6" display="https://www.digikey.com/product-detail/en/texas-instruments/HDC2010YPAR/296-47774-6-ND/8133296" xr:uid="{A59B6D7E-18A9-46DD-B79B-3216C251B120}"/>
+    <hyperlink ref="A46" r:id="rId7" xr:uid="{5D40EBFA-38D8-4D85-A69A-77A340615339}"/>
+    <hyperlink ref="A2" r:id="rId8" display="https://www.digikey.com/product-detail/en/microchip-technology/PIC32MX795F512L-80I-PT/PIC32MX795F512L-80I-PT-ND/2184451" xr:uid="{96F50DC8-1156-44BD-A100-CECEF0DBA608}"/>
+    <hyperlink ref="A4" r:id="rId9" display="https://www.digikey.com/product-detail/en/stmicroelectronics/LIS3DHTR/497-10613-1-ND/2334355" xr:uid="{75FD6DE8-E3E6-488A-80DA-A82A7415BE34}"/>
+    <hyperlink ref="A5" r:id="rId10" display="CAM-M8" xr:uid="{AAA52117-BA88-47F2-8CEE-882690036EF1}"/>
+    <hyperlink ref="A6" r:id="rId11" xr:uid="{B7E4E087-B402-4FDC-949C-298F88573ED0}"/>
+    <hyperlink ref="A9" r:id="rId12" xr:uid="{BCB74108-468A-49FE-9C12-37C2BA4FC058}"/>
+    <hyperlink ref="A47" r:id="rId13" xr:uid="{B696A207-AA14-4226-B01D-E4F633E3359E}"/>
+    <hyperlink ref="A48" r:id="rId14" xr:uid="{FC9BFBD5-64DF-4FA5-B956-10395A26F4F7}"/>
+    <hyperlink ref="A11" r:id="rId15" xr:uid="{00FD8348-3D5C-4D08-B5A1-80F726E66E33}"/>
+    <hyperlink ref="A15" r:id="rId16" display="https://www.digikey.com/product-detail/en/on-semiconductor/MC74HC125ADR2G/MC74HC125ADR2GOSCT-ND/1139715" xr:uid="{0D700448-0E72-4B55-90FA-B368E0B62C39}"/>
+    <hyperlink ref="A16" r:id="rId17" display="https://www.digikey.com/product-detail/en/texas-instruments/DRV8872DDAR/296-42661-1-ND/5455926" xr:uid="{6114D03B-D4DA-4FBF-9B1C-C3B7AD098BA9}"/>
+    <hyperlink ref="A17" r:id="rId18" display="https://www.digikey.com/product-detail/en/analog-devices-inc/AD7799BRUZ-REEL/AD7799BRUZ-REELCT-ND/4135565" xr:uid="{4B1FE711-B41B-4C95-9AFF-964E590FAEA9}"/>
+    <hyperlink ref="A19" r:id="rId19" xr:uid="{C8A12CB4-8BD6-400D-8778-CB90C34529A8}"/>
+    <hyperlink ref="A18" r:id="rId20" xr:uid="{DA75B542-D86D-4B8B-A010-0E90403DB631}"/>
+    <hyperlink ref="A14" r:id="rId21" xr:uid="{7F96FA14-D697-422E-905A-991475B71057}"/>
+    <hyperlink ref="A8" r:id="rId22" xr:uid="{9849B45B-0C58-488D-BA9E-5D0A918112A3}"/>
+    <hyperlink ref="A3" r:id="rId23" xr:uid="{0D2ADA9B-1007-4C76-91DB-7B12AE9573EA}"/>
+    <hyperlink ref="A21" r:id="rId24" xr:uid="{1403372D-5EBE-4749-8D7B-B82E7BCD587C}"/>
+    <hyperlink ref="A7" r:id="rId25" xr:uid="{97352714-91EF-4428-A3E4-A04998CB3C31}"/>
+    <hyperlink ref="A20" r:id="rId26" xr:uid="{DB300913-E56B-4B4B-8B6B-45D99AE75B3D}"/>
+    <hyperlink ref="A13" r:id="rId27" xr:uid="{2B494103-7B58-418F-8039-3EE2EE0764D5}"/>
+    <hyperlink ref="A12" r:id="rId28" xr:uid="{FC62576B-0341-4AB6-A60F-37AA4F9AC5C1}"/>
+    <hyperlink ref="A10" r:id="rId29" xr:uid="{474F737D-ACD2-4647-9706-527F0B2556E0}"/>
+    <hyperlink ref="A22" r:id="rId30" xr:uid="{143742D2-F4BE-4740-B25E-8DB03D19A806}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EBDEEC8F-BD23-4E2E-99BF-810A8861A417}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H46</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E5B5708F-AF4E-472B-86D4-E608850ED8C2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
@@ -1868,21 +2035,24 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H2:H27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EBDEEC8F-BD23-4E2E-99BF-810A8861A417}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H48</xm:sqref>
+          <xm:sqref>H2:H25</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3741804-3093-4E79-8ABA-2728B7104058}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Bill of Materials.xlsx
+++ b/Bill of Materials.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{71BA29C5-9E13-4A16-9CCF-891BCF0D252D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7CF714A3-94F7-447E-92FF-AFDD6E771D56}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="122">
   <si>
     <t>Part Number</t>
   </si>
@@ -68,18 +68,12 @@
     <t>STMicroelectronics</t>
   </si>
   <si>
-    <t>Per Unit Cost</t>
-  </si>
-  <si>
     <t>Accelerometer</t>
   </si>
   <si>
     <t>CAM-M8C</t>
   </si>
   <si>
-    <t>GPS</t>
-  </si>
-  <si>
     <t>U-Blox</t>
   </si>
   <si>
@@ -182,9 +176,6 @@
     <t>AD7799BRUZ-REEL</t>
   </si>
   <si>
-    <t>ADC</t>
-  </si>
-  <si>
     <t>Analog Devices</t>
   </si>
   <si>
@@ -230,9 +221,6 @@
     <t>MCU Oscillator</t>
   </si>
   <si>
-    <t>Fox Electronics</t>
-  </si>
-  <si>
     <t>0.1uF, 1uF, 10uF</t>
   </si>
   <si>
@@ -371,12 +359,6 @@
     <t>10118192-0002LF</t>
   </si>
   <si>
-    <t>OSTTE040104</t>
-  </si>
-  <si>
-    <t>On Shore</t>
-  </si>
-  <si>
     <t>500 unit cost</t>
   </si>
   <si>
@@ -393,6 +375,21 @@
   </si>
   <si>
     <t>Terminal Blocks</t>
+  </si>
+  <si>
+    <t>Abracon</t>
+  </si>
+  <si>
+    <t>1 Unit Cost</t>
+  </si>
+  <si>
+    <t>39357-0015</t>
+  </si>
+  <si>
+    <t>GNSS Reciever</t>
+  </si>
+  <si>
+    <t>Delta-Sigma ADC</t>
   </si>
 </sst>
 </file>
@@ -896,7 +893,7 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,7 +924,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>1</v>
@@ -939,22 +936,22 @@
         <v>4</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -982,10 +979,10 @@
       </c>
       <c r="H2" s="13">
         <f t="shared" ref="H2:H11" si="1">G2/$G$26</f>
-        <v>8.9986460026202947E-2</v>
+        <v>8.9394262000320954E-2</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="J2" s="25"/>
       <c r="K2" s="14">
@@ -995,18 +992,18 @@
         <v>98.69</v>
       </c>
       <c r="M2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D3" s="8">
         <v>1.66</v>
@@ -1023,10 +1020,10 @@
       </c>
       <c r="H3" s="13">
         <f t="shared" si="1"/>
-        <v>1.7226999047816785E-2</v>
+        <v>1.7113628716046676E-2</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J3" s="25"/>
       <c r="K3" s="14">
@@ -1036,7 +1033,7 @@
         <v>80.599999999999994</v>
       </c>
       <c r="M3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1044,7 +1041,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -1059,27 +1056,27 @@
         <v>1</v>
       </c>
       <c r="G4" s="8">
-        <f t="shared" si="0"/>
+        <f>F4*E4</f>
         <v>0.70920000000000005</v>
       </c>
       <c r="H4" s="13">
         <f t="shared" si="1"/>
-        <v>7.9333686524101707E-3</v>
+        <v>7.8811594061170796E-3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D5" s="8">
         <v>31.43</v>
@@ -1096,19 +1093,19 @@
       </c>
       <c r="H5" s="13">
         <f t="shared" si="1"/>
-        <v>0.13423635621675414</v>
+        <v>0.13335295103412995</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -1128,16 +1125,16 @@
       </c>
       <c r="H6" s="13">
         <f t="shared" si="1"/>
-        <v>2.8804884771511828E-3</v>
+        <v>2.8615320742740387E-3</v>
       </c>
       <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -1157,19 +1154,19 @@
       </c>
       <c r="H7" s="13">
         <f t="shared" si="1"/>
-        <v>3.9644470536014725E-3</v>
+        <v>3.9383571538746378E-3</v>
       </c>
       <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="8">
         <v>43</v>
@@ -1186,19 +1183,19 @@
       </c>
       <c r="H8" s="13">
         <f t="shared" si="1"/>
-        <v>0.3800029889961985</v>
+        <v>0.37750220143496677</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
@@ -1218,51 +1215,51 @@
       </c>
       <c r="H9" s="13">
         <f t="shared" si="1"/>
-        <v>6.5329478661788828E-3</v>
+        <v>6.4899547444535197E-3</v>
       </c>
       <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="D10" s="6">
-        <v>1.07</v>
+        <v>5.71</v>
       </c>
       <c r="E10" s="8">
-        <v>0.4264</v>
+        <v>3.5459999999999998</v>
       </c>
       <c r="F10" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="0"/>
-        <v>2.1320000000000001</v>
+        <v>3.5459999999999998</v>
       </c>
       <c r="H10" s="13">
         <f t="shared" si="1"/>
-        <v>2.3849325954509989E-2</v>
+        <v>3.9405797030585395E-2</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8">
         <v>3.58</v>
@@ -1279,19 +1276,19 @@
       </c>
       <c r="H11" s="13">
         <f t="shared" si="1"/>
-        <v>3.1609305980140182E-2</v>
+        <v>3.1401286144761745E-2</v>
       </c>
       <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D12" s="8">
         <v>0.47</v>
@@ -1311,13 +1308,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D13" s="8">
         <v>0.77</v>
@@ -1334,22 +1331,22 @@
       </c>
       <c r="H13" s="13">
         <f t="shared" ref="H13:H24" si="2">G13/$G$26</f>
-        <v>6.8187594412903885E-3</v>
+        <v>6.773885402697021E-3</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D14" s="8">
         <v>2.6</v>
@@ -1366,22 +1363,22 @@
       </c>
       <c r="H14" s="13">
         <f t="shared" si="2"/>
-        <v>2.5042910888537294E-2</v>
+        <v>2.4878104290008893E-2</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D15" s="8">
         <v>0.4</v>
@@ -1398,16 +1395,16 @@
       </c>
       <c r="H15" s="13">
         <f t="shared" si="2"/>
-        <v>3.7474316110510538E-3</v>
+        <v>3.7227698830361281E-3</v>
       </c>
       <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
@@ -1422,24 +1419,24 @@
         <v>1</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="0"/>
+        <f>F16*E16</f>
         <v>1.3996999999999999</v>
       </c>
       <c r="H16" s="13">
         <f t="shared" si="2"/>
-        <v>1.5657552316382564E-2</v>
+        <v>1.5554510463539306E-2</v>
       </c>
       <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8">
         <v>11.4</v>
@@ -1456,22 +1453,22 @@
       </c>
       <c r="H17" s="13">
         <f t="shared" si="2"/>
-        <v>9.5367100637891181E-2</v>
+        <v>9.473949278760567E-2</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" s="8">
         <v>0.99</v>
@@ -1488,22 +1485,22 @@
       </c>
       <c r="H18" s="13">
         <f t="shared" si="2"/>
-        <v>7.685031393409176E-3</v>
+        <v>7.6344564467039399E-3</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J18" s="25"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8">
         <v>3.2</v>
@@ -1520,54 +1517,54 @@
       </c>
       <c r="H19" s="13">
         <f t="shared" si="2"/>
-        <v>2.8330471115915783E-2</v>
+        <v>2.814402918829393E-2</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="D20" s="8">
-        <v>1.34</v>
+        <v>0.27</v>
       </c>
       <c r="E20" s="8">
-        <v>1.0048999999999999</v>
+        <v>0.18310000000000001</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="0"/>
-        <v>1.0048999999999999</v>
+        <v>0.18310000000000001</v>
       </c>
       <c r="H20" s="13">
         <f t="shared" si="2"/>
-        <v>1.1241176196851353E-2</v>
+        <v>2.0347437778624328E-3</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D21" s="6">
         <v>1.54</v>
@@ -1584,19 +1581,19 @@
       </c>
       <c r="H21" s="13">
         <f t="shared" si="2"/>
-        <v>1.202534024441756E-2</v>
+        <v>1.1946201863474141E-2</v>
       </c>
       <c r="J21" s="25"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D22" s="8">
         <v>0.25</v>
@@ -1613,22 +1610,22 @@
       </c>
       <c r="H22" s="13">
         <f t="shared" si="2"/>
-        <v>2.7965907545157115E-3</v>
+        <v>2.7781864798777072E-3</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="J22" s="25"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D23" s="15">
         <v>0.1</v>
@@ -1645,19 +1642,19 @@
       </c>
       <c r="H23" s="13">
         <f t="shared" si="2"/>
-        <v>4.4745452072251383E-2</v>
+        <v>4.4450983678043315E-2</v>
       </c>
       <c r="J23" s="25"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D24" s="15">
         <v>0.1</v>
@@ -1674,7 +1671,7 @@
       </c>
       <c r="H24" s="13">
         <f t="shared" si="2"/>
-        <v>4.4745452072251383E-2</v>
+        <v>4.4450983678043315E-2</v>
       </c>
       <c r="J24" s="25"/>
     </row>
@@ -1684,11 +1681,11 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F26" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G26" s="20">
         <f>SUM(G2:G25)</f>
-        <v>89.394559999999984</v>
+        <v>89.986759999999975</v>
       </c>
       <c r="H26" s="10">
         <f>G26/$G$26</f>
@@ -1697,7 +1694,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F27" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G27" s="20">
         <f>525/100</f>
@@ -1706,7 +1703,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F28" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G28" s="20">
         <v>5</v>
@@ -1714,14 +1711,14 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F29" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G29" s="22">
         <f>G26+G27+G28</f>
-        <v>99.644559999999984</v>
+        <v>100.23675999999998</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1729,30 +1726,30 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H34" s="10">
         <v>525</v>
@@ -1760,50 +1757,50 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D36"/>
       <c r="E36" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D37"/>
       <c r="E37" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D40" s="8">
         <v>2.59</v>
@@ -1814,13 +1811,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D41" s="8">
         <v>0.95</v>
@@ -1831,20 +1828,20 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>6</v>
@@ -1875,13 +1872,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D46" s="8">
         <v>0.44</v>
@@ -1898,18 +1895,18 @@
       </c>
       <c r="H46" s="13">
         <f>G46/$G$26</f>
-        <v>2.1198157919229093E-3</v>
+        <v>2.105865351747302E-3</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D47" s="8">
         <v>0.22</v>
@@ -1927,13 +1924,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D48" s="8">
         <v>0.1</v>
@@ -2007,8 +2004,8 @@
     <hyperlink ref="A20" r:id="rId26" xr:uid="{DB300913-E56B-4B4B-8B6B-45D99AE75B3D}"/>
     <hyperlink ref="A13" r:id="rId27" xr:uid="{2B494103-7B58-418F-8039-3EE2EE0764D5}"/>
     <hyperlink ref="A12" r:id="rId28" xr:uid="{FC62576B-0341-4AB6-A60F-37AA4F9AC5C1}"/>
-    <hyperlink ref="A10" r:id="rId29" xr:uid="{474F737D-ACD2-4647-9706-527F0B2556E0}"/>
-    <hyperlink ref="A22" r:id="rId30" xr:uid="{143742D2-F4BE-4740-B25E-8DB03D19A806}"/>
+    <hyperlink ref="A22" r:id="rId29" xr:uid="{143742D2-F4BE-4740-B25E-8DB03D19A806}"/>
+    <hyperlink ref="A10" r:id="rId30" xr:uid="{DCAF167F-0EB9-4809-861C-A6BC048ADE48}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId31"/>
